--- a/Data/Comprehensive Viral CHI Study Information.xlsx
+++ b/Data/Comprehensive Viral CHI Study Information.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ac3d1648a466e1c/Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ac3d1648a466e1c/Research/Using models to identify the causes of pre-symptomatic transmission from human infection data/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="14_{A3B3D946-D6D9-41A7-9770-BD0151C861D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5162671C-1530-4885-B027-1145B010888E}"/>
+  <xr:revisionPtr revIDLastSave="393" documentId="14_{A3B3D946-D6D9-41A7-9770-BD0151C861D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2739E68-B3C0-4146-8747-86FDD83536F1}"/>
   <bookViews>
     <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15730" xr2:uid="{09A57F7B-ADBD-49A1-8110-3D5FDD0148DB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="132">
   <si>
     <t>study</t>
   </si>
@@ -50,18 +50,12 @@
     <t>type of data collected</t>
   </si>
   <si>
-    <t>Atmar2008</t>
-  </si>
-  <si>
     <t>Norovirus</t>
   </si>
   <si>
     <t>individual-level shedding and symptom onset reported in table</t>
   </si>
   <si>
-    <t>Kirby2014</t>
-  </si>
-  <si>
     <t>aggregated shedding onset and symptom onset in table</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t>found in review (https://link.springer.com/article/10.1186/s12931-018-0784-1#Bib1)</t>
   </si>
   <si>
-    <t>individual-level shedding onset reported in table</t>
-  </si>
-  <si>
     <t>Han2019</t>
   </si>
   <si>
@@ -374,9 +365,6 @@
     <t>individual-level days of shedding and days of symptoms shown in plot</t>
   </si>
   <si>
-    <t>Influenza A/rhinovirus/RSV</t>
-  </si>
-  <si>
     <t>aggregate-level symptoms shown in plots</t>
   </si>
   <si>
@@ -429,6 +417,18 @@
   </si>
   <si>
     <t>DeVincenzo2010.2</t>
+  </si>
+  <si>
+    <t>Atmar2008/Ge2023</t>
+  </si>
+  <si>
+    <t>Kirby2014 (Lindesmith2005)</t>
+  </si>
+  <si>
+    <t>individual-level shedding onset reported in table, aggregated shedding onset reported in text</t>
+  </si>
+  <si>
+    <t>individual-level shedding and symptoms reported in graph</t>
   </si>
 </sst>
 </file>
@@ -1304,15 +1304,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1047959E-E27E-4450-92BD-BB30EE78A4F7}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="104" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="104" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A69" activeCellId="25" sqref="A5:XFD5 A6:XFD6 A9:XFD9 A11:XFD11 A12:XFD12 A13:XFD13 A14:XFD14 A17:XFD17 A21:XFD21 A22:XFD22 A25:XFD25 A28:XFD28 A29:XFD29 A30:XFD30 A32:XFD32 A35:XFD35 A42:XFD42 A51:XFD51 A53:XFD53 A57:XFD57 A58:XFD58 A59:XFD59 A65:XFD65 A67:XFD67 A68:XFD68 A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="105.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1333,15 +1333,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1350,15 +1350,15 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1367,15 +1367,15 @@
         <v>1.5</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1384,43 +1384,49 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2.7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1429,18 +1435,18 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1449,32 +1455,38 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
       </c>
       <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>1.8</v>
@@ -1483,94 +1495,118 @@
         <v>1.5625</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>2.25</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>2.6</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15">
+        <v>1.52</v>
+      </c>
+      <c r="D15">
+        <v>1.06</v>
+      </c>
+      <c r="E15" t="s">
         <v>6</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1579,421 +1615,457 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>1.2</v>
+        <v>1.3833333329999999</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1.3833333329999999</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2.125</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C35">
-        <v>2.125</v>
-      </c>
-      <c r="D35">
-        <v>2.5</v>
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
@@ -2001,507 +2073,572 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>3.2</v>
+      </c>
+      <c r="D42" t="s">
         <v>11</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C43">
-        <v>3.2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>4.5</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D44">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C45">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="D49">
-        <v>1.5</v>
+        <v>0.66666666699999999</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>0.66666666699999999</v>
+        <v>1.7</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
         <v>11</v>
       </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
       <c r="E51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" t="s">
         <v>40</v>
-      </c>
-      <c r="F51" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>2.41</v>
+      </c>
+      <c r="D52">
+        <v>2.75</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>2.5</v>
-      </c>
-      <c r="D53">
-        <v>2.82</v>
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>13</v>
+        <v>3.3</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>97</v>
+      </c>
+      <c r="F54" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C55">
-        <v>3.3</v>
+        <f>40/24</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C56">
-        <f>40/24</f>
-        <v>1.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="E56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57">
+        <v>5.8</v>
+      </c>
+      <c r="D57" t="s">
         <v>11</v>
       </c>
-      <c r="C57">
-        <v>0.5</v>
-      </c>
-      <c r="D57">
-        <v>0.67</v>
-      </c>
       <c r="E57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" t="s">
         <v>102</v>
       </c>
-      <c r="F57" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59">
+        <v>1.9</v>
+      </c>
+      <c r="E59" t="s">
         <v>103</v>
       </c>
-      <c r="E58" t="s">
-        <v>40</v>
-      </c>
-      <c r="F58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" t="s">
-        <v>104</v>
-      </c>
       <c r="F59" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>0.4</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F60" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C61">
-        <v>0.4</v>
+        <f>(3+3+3+2+2+2+2+3+3+3+3+2)/12</f>
+        <v>2.5833333333333335</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <f>(4+0+1+4+4+0+3+1+1+9+2+2)/12</f>
+        <v>2.5833333333333335</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
       </c>
       <c r="C62">
-        <f>(3+3+3+2+2+2+2+3+3+3+3+2)/12</f>
-        <v>2.5833333333333335</v>
+        <f>(1+1+1+2+2+2+1+1+1+1)/10</f>
+        <v>1.3</v>
       </c>
       <c r="D62">
-        <f>(4+0+1+4+4+0+3+1+1+9+2+2)/12</f>
-        <v>2.5833333333333335</v>
+        <f>(2+0+1+2+0+0+1+0+0+2)/10</f>
+        <v>0.8</v>
       </c>
       <c r="E62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C63">
-        <f>(1+1+1+2+2+2+1+1+1+1)/10</f>
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <f>(2+0+1+2+0+0+1+0+0+2)/10</f>
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="F63" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64">
+        <f>34.5/24</f>
+        <v>1.4375</v>
+      </c>
+      <c r="D64">
         <v>2</v>
       </c>
-      <c r="D64">
-        <v>4</v>
-      </c>
       <c r="E64" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F64" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65">
-        <f>34.5/24</f>
-        <v>1.4375</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
+        <v>107</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
       </c>
       <c r="E65" t="s">
         <v>108</v>
       </c>
       <c r="F65" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>3.125</v>
+      </c>
+      <c r="D66">
+        <v>2.75</v>
       </c>
       <c r="E66" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F66" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67">
-        <v>3.125</v>
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
       </c>
       <c r="D67">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>110</v>
+      </c>
+      <c r="F69" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F54">
-    <sortCondition ref="B1:B54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F53">
+    <sortCondition ref="B1:B53"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A59" r:id="rId1" display="https://www.atsjournals.org/doi/full/10.1164/rccm.200805-670OC?role=tab" xr:uid="{72136796-FC9C-4D19-93D2-C68977CD95E5}"/>
+    <hyperlink ref="A58" r:id="rId1" display="https://www.atsjournals.org/doi/full/10.1164/rccm.200805-670OC?role=tab" xr:uid="{72136796-FC9C-4D19-93D2-C68977CD95E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
